--- a/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
+++ b/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\Sonntag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30546317-C631-447F-9A12-11A98B43B2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B599086-294B-4EAF-AAFB-A4D9D9CDAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="325">
   <si>
     <t>Index</t>
   </si>
@@ -584,9 +584,6 @@
     <t>02., Schüttelstraße 17A</t>
   </si>
   <si>
-    <t>02., Meiereistraße 20</t>
-  </si>
-  <si>
     <t>02., Heustadlsteg 213</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
   </si>
   <si>
     <t>Zeremoniensaaltrakt, Hofburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…auch Rittersaal? </t>
   </si>
   <si>
     <t xml:space="preserve">Amalienburg, Hofburg? </t>
@@ -811,18 +805,12 @@
     <t>hoch</t>
   </si>
   <si>
-    <t>nicht! Salztorbücke</t>
-  </si>
-  <si>
     <t>Salztorbrücke</t>
   </si>
   <si>
     <t>neues Thore</t>
   </si>
   <si>
-    <t>fehlt</t>
-  </si>
-  <si>
     <t>Gazetteer_Steinhausenplan_V5_auto</t>
   </si>
   <si>
@@ -919,9 +907,6 @@
     <t>https://geohack.toolforge.org/geohack.php?pagename=Salztorbr%C3%BCcke&amp;language=de&amp;params=48.214166666667_N_16.375_E_region:AT-9_type:landmark</t>
   </si>
   <si>
-    <t>https://geohack.toolforge.org/geohack.php?pagename=S%C3%BChnhaus&amp;language=de&amp;params=48.214722222222_N_16.363333333333_E_region:AT-9_type:landmark</t>
-  </si>
-  <si>
     <t>01., Schottenring 7, Sühnhaus</t>
   </si>
   <si>
@@ -1007,13 +992,31 @@
   </si>
   <si>
     <t>https://www.geschichtewiki.wien.gv.at/Cortisches_Kaffeehaus</t>
+  </si>
+  <si>
+    <t>QGIS -Estimation</t>
+  </si>
+  <si>
+    <t>!=Salztorbücke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entspricht Rittersaal? </t>
+  </si>
+  <si>
+    <t>QGIS-Estimation</t>
+  </si>
+  <si>
+    <t>02., Meiereistraße 20; k.k. Unterer Prater</t>
+  </si>
+  <si>
+    <t>des Erzherzogs Maximilian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,16 +1066,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1121,6 +1136,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1128,7 +1167,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1155,6 +1194,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1162,7 +1205,37 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{635C61DD-4C4C-463F-8A5E-29D819A5FB3F}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{8C7CD6E7-93E4-4EC9-9D5B-655C1AEDACFA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1173,6 +1246,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56090D2F-2F8D-4DD3-B85D-7A41649EEE98}" name="Table1" displayName="Table1" ref="A1:H189" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H189" xr:uid="{56090D2F-2F8D-4DD3-B85D-7A41649EEE98}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4698E331-9694-4111-AA9B-D967027FEBAE}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{D96E1CDA-2DAA-4B6B-B47C-9926123A1DF4}" name="NEUE_NAMEN"/>
+    <tableColumn id="3" xr3:uid="{1D3A7680-1E77-4F00-913A-701D96E36E67}" name="ADRESSE"/>
+    <tableColumn id="4" xr3:uid="{C74BCDE3-514A-4F52-B24A-8D72E68530C1}" name="Sicherheit"/>
+    <tableColumn id="5" xr3:uid="{EEEAF4CE-A814-4A3C-917B-A5984CCB4EDD}" name="Longitude"/>
+    <tableColumn id="6" xr3:uid="{A7BAFCC6-1B4C-4537-A0BB-9FDF31F0117B}" name="Latitude"/>
+    <tableColumn id="7" xr3:uid="{8D1A509F-321C-4B9C-9574-7D58656C4F60}" name="Quelle"/>
+    <tableColumn id="8" xr3:uid="{1FCD5417-3D1C-43EE-BCDC-921E25A31509}" name="URL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1464,13 +1554,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
@@ -1491,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1500,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1516,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E2" s="3">
         <v>16.365809460000001</v>
@@ -1525,7 +1615,7 @@
         <v>48.206874249999998</v>
       </c>
       <c r="G2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1536,16 +1626,16 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>24.056078838766702</v>
+        <v>16.364500038029011</v>
       </c>
       <c r="F3">
-        <v>34.093268599226299</v>
+        <v>48.206793599905389</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1556,16 +1646,16 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E4">
-        <v>16.363591169999999</v>
+        <v>16.362701650694301</v>
       </c>
       <c r="F4">
-        <v>48.207306670000001</v>
+        <v>48.205781183762973</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1575,14 +1665,17 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
-        <v>16.37611472</v>
-      </c>
-      <c r="F5" s="3">
-        <v>48.207519480000002</v>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>16.358861594767429</v>
+      </c>
+      <c r="F5">
+        <v>48.203592798970938</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1592,10 +1685,12 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E6">
         <v>16.355277999999998</v>
       </c>
@@ -1603,10 +1698,10 @@
         <v>48.205832999999998</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1616,6 +1711,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
       <c r="E7" s="3">
         <v>16.36429283</v>
       </c>
@@ -1623,7 +1721,7 @@
         <v>48.21043401</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1631,10 +1729,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
         <v>220</v>
       </c>
-      <c r="C8" t="s">
-        <v>221</v>
+      <c r="D8" t="s">
+        <v>252</v>
       </c>
       <c r="E8">
         <v>16.356328999999999</v>
@@ -1643,10 +1744,10 @@
         <v>48.210980999999997</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1667,6 +1768,9 @@
       <c r="C10" t="s">
         <v>163</v>
       </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
       <c r="E10">
         <v>16.3330615633398</v>
       </c>
@@ -1674,7 +1778,7 @@
         <v>48.276207520699103</v>
       </c>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1687,6 +1791,9 @@
       <c r="C11" t="s">
         <v>164</v>
       </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
       <c r="E11">
         <v>16.336883553860101</v>
       </c>
@@ -1694,7 +1801,7 @@
         <v>48.194919391773901</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1711,7 +1818,7 @@
         <v>48.210179850000003</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1722,7 +1829,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="D13" t="s">
+        <v>255</v>
       </c>
       <c r="E13" s="5">
         <v>16.361861000000001</v>
@@ -1731,10 +1841,10 @@
         <v>48.200944</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1747,14 +1857,17 @@
       <c r="C14" t="s">
         <v>165</v>
       </c>
-      <c r="E14">
-        <v>16.364151863329699</v>
-      </c>
-      <c r="F14">
-        <v>48.201064794712003</v>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="12">
+        <v>16.362007399610491</v>
+      </c>
+      <c r="F14" s="13">
+        <v>48.201896648067986</v>
       </c>
       <c r="G14" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1780,6 +1893,9 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
       <c r="E17" s="6">
         <v>16.365013560000001</v>
       </c>
@@ -1787,7 +1903,7 @@
         <v>48.199254320000001</v>
       </c>
       <c r="G17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1798,10 +1914,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1813,7 +1929,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>265</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
       </c>
       <c r="E19" s="7">
         <v>16.368694000000001</v>
@@ -1822,10 +1941,10 @@
         <v>48.200527999999998</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1836,7 +1955,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>255</v>
       </c>
       <c r="E20" s="7">
         <v>16.369911999999999</v>
@@ -1845,10 +1967,10 @@
         <v>48.198887999999997</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1861,6 +1983,9 @@
       <c r="C21" t="s">
         <v>166</v>
       </c>
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
       <c r="E21">
         <v>16.371866173866</v>
       </c>
@@ -1868,7 +1993,7 @@
         <v>48.198245099030899</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1879,7 +2004,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
       </c>
       <c r="E22" s="5">
         <v>16.366111</v>
@@ -1888,10 +2016,10 @@
         <v>48.206389000000001</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1902,7 +2030,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>321</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1913,7 +2044,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1924,7 +2058,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="D25" t="s">
+        <v>254</v>
       </c>
       <c r="E25" s="5">
         <v>16.366111</v>
@@ -1933,7 +2070,7 @@
         <v>48.206389000000001</v>
       </c>
       <c r="G25" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1944,7 +2081,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1963,7 +2100,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="D28" t="s">
+        <v>255</v>
       </c>
       <c r="E28" s="5">
         <v>16.366111</v>
@@ -1972,7 +2112,7 @@
         <v>48.206389000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1983,7 +2123,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>255</v>
       </c>
       <c r="E29" s="5">
         <v>16.366641000000001</v>
@@ -1992,10 +2135,10 @@
         <v>48.206166000000003</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2005,6 +2148,9 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
       <c r="E30" s="7">
         <v>16.367182</v>
       </c>
@@ -2012,10 +2158,10 @@
         <v>48.206510999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2026,7 +2172,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="D31" t="s">
+        <v>252</v>
       </c>
       <c r="E31" s="5">
         <v>16.373083000000001</v>
@@ -2035,10 +2184,10 @@
         <v>48.203749999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2048,6 +2197,18 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
+      <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>16.364500038029011</v>
+      </c>
+      <c r="F32">
+        <v>48.206793599905389</v>
+      </c>
+      <c r="G32" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -2059,6 +2220,9 @@
       <c r="C33" t="s">
         <v>167</v>
       </c>
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
       <c r="E33">
         <v>16.361755237940699</v>
       </c>
@@ -2066,7 +2230,7 @@
         <v>48.207964058470097</v>
       </c>
       <c r="G33" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2079,6 +2243,9 @@
       <c r="C34" t="s">
         <v>168</v>
       </c>
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
       <c r="E34">
         <v>16.3659572122668</v>
       </c>
@@ -2086,7 +2253,7 @@
         <v>48.204555072124897</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2099,6 +2266,9 @@
       <c r="C35" t="s">
         <v>168</v>
       </c>
+      <c r="D35" t="s">
+        <v>254</v>
+      </c>
       <c r="E35">
         <v>16.3659572122668</v>
       </c>
@@ -2106,7 +2276,7 @@
         <v>48.204555072124897</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2117,7 +2287,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
       </c>
       <c r="E36" s="5">
         <v>16.366667</v>
@@ -2126,10 +2299,10 @@
         <v>48.205278</v>
       </c>
       <c r="G36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2139,6 +2312,9 @@
       <c r="B37" t="s">
         <v>36</v>
       </c>
+      <c r="D37" t="s">
+        <v>253</v>
+      </c>
       <c r="E37">
         <v>16.376387860000001</v>
       </c>
@@ -2146,7 +2322,7 @@
         <v>48.209587370000001</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2157,7 +2333,10 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="D38" t="s">
+        <v>252</v>
       </c>
       <c r="E38" s="5">
         <v>16.373083000000001</v>
@@ -2166,10 +2345,10 @@
         <v>48.203749999999999</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2180,7 +2359,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="D39" t="s">
+        <v>255</v>
       </c>
       <c r="E39" s="7">
         <v>16.369026000000002</v>
@@ -2189,10 +2371,10 @@
         <v>48.204306000000003</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2203,7 +2385,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -2217,6 +2399,9 @@
       <c r="C41" t="s">
         <v>169</v>
       </c>
+      <c r="D41" t="s">
+        <v>254</v>
+      </c>
       <c r="E41">
         <v>16.369772672546802</v>
       </c>
@@ -2224,7 +2409,7 @@
         <v>48.203887080944597</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2234,6 +2419,9 @@
       <c r="B42" t="s">
         <v>36</v>
       </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
       <c r="E42">
         <v>16.376387860000001</v>
       </c>
@@ -2241,7 +2429,7 @@
         <v>48.209587370000001</v>
       </c>
       <c r="G42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2252,7 +2440,10 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>255</v>
       </c>
       <c r="E43">
         <v>16.370534457671599</v>
@@ -2261,10 +2452,10 @@
         <v>48.203303433951199</v>
       </c>
       <c r="G43" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H43" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2277,6 +2468,9 @@
       <c r="C44" t="s">
         <v>170</v>
       </c>
+      <c r="D44" t="s">
+        <v>254</v>
+      </c>
       <c r="E44">
         <v>16.371565071471501</v>
       </c>
@@ -2284,7 +2478,7 @@
         <v>48.206892902478103</v>
       </c>
       <c r="G44" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2297,6 +2491,9 @@
       <c r="C45" t="s">
         <v>171</v>
       </c>
+      <c r="D45" t="s">
+        <v>254</v>
+      </c>
       <c r="E45">
         <v>16.369816870678601</v>
       </c>
@@ -2304,7 +2501,7 @@
         <v>48.191508296687097</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2323,7 +2520,10 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="D47" t="s">
+        <v>255</v>
       </c>
       <c r="E47">
         <v>16.3673894389274</v>
@@ -2332,10 +2532,10 @@
         <v>48.198865889213501</v>
       </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2346,7 +2546,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="D48" t="s">
+        <v>255</v>
       </c>
       <c r="E48" s="7">
         <v>16.369911999999999</v>
@@ -2355,7 +2558,7 @@
         <v>48.198887999999997</v>
       </c>
       <c r="G48" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2368,6 +2571,9 @@
       <c r="C49" t="s">
         <v>166</v>
       </c>
+      <c r="D49" t="s">
+        <v>255</v>
+      </c>
       <c r="E49">
         <v>16.371866173866</v>
       </c>
@@ -2375,7 +2581,7 @@
         <v>48.198245099030899</v>
       </c>
       <c r="G49" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2386,7 +2592,10 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
       </c>
       <c r="E50">
         <v>16.3673894389274</v>
@@ -2395,7 +2604,7 @@
         <v>48.198865889213501</v>
       </c>
       <c r="G50" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2408,6 +2617,9 @@
       <c r="C51" t="s">
         <v>172</v>
       </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
       <c r="E51">
         <v>16.234337092498301</v>
       </c>
@@ -2415,7 +2627,7 @@
         <v>48.2244265511275</v>
       </c>
       <c r="G51" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2425,6 +2637,9 @@
       <c r="B52" t="s">
         <v>46</v>
       </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
       <c r="E52" s="5">
         <v>15.807499999999999</v>
       </c>
@@ -2432,10 +2647,10 @@
         <v>47.775832999999999</v>
       </c>
       <c r="G52" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H52" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2448,6 +2663,9 @@
       <c r="C53" t="s">
         <v>166</v>
       </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
       <c r="E53">
         <v>16.371866173866</v>
       </c>
@@ -2455,7 +2673,7 @@
         <v>48.198245099030899</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2465,14 +2683,17 @@
       <c r="B54" t="s">
         <v>47</v>
       </c>
-      <c r="E54">
-        <v>33.2211186575718</v>
-      </c>
-      <c r="F54">
-        <v>33.988626386800398</v>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="14">
+        <v>16.376831816725058</v>
+      </c>
+      <c r="F54" s="15">
+        <v>48.197382170211647</v>
       </c>
       <c r="G54" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2485,6 +2706,9 @@
       <c r="C55" t="s">
         <v>173</v>
       </c>
+      <c r="D55" t="s">
+        <v>255</v>
+      </c>
       <c r="E55">
         <v>16.380340127652399</v>
       </c>
@@ -2492,7 +2716,7 @@
         <v>48.194248112951001</v>
       </c>
       <c r="G55" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2503,7 +2727,10 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="D56" t="s">
+        <v>255</v>
       </c>
       <c r="E56">
         <v>16.380099999999999</v>
@@ -2512,10 +2739,10 @@
         <v>48.186576000000002</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2528,6 +2755,9 @@
       <c r="C57" t="s">
         <v>173</v>
       </c>
+      <c r="D57" t="s">
+        <v>255</v>
+      </c>
       <c r="E57">
         <v>16.380340127652399</v>
       </c>
@@ -2535,7 +2765,7 @@
         <v>48.194248112951001</v>
       </c>
       <c r="G57" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2546,7 +2776,10 @@
         <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>255</v>
       </c>
       <c r="E58">
         <v>16.381667</v>
@@ -2555,10 +2788,10 @@
         <v>48.195833</v>
       </c>
       <c r="G58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2568,6 +2801,9 @@
       <c r="B59" t="s">
         <v>51</v>
       </c>
+      <c r="D59" t="s">
+        <v>252</v>
+      </c>
       <c r="E59" s="8">
         <v>16.370252099999998</v>
       </c>
@@ -2575,7 +2811,7 @@
         <v>48.205290789999999</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2585,14 +2821,17 @@
       <c r="B60" t="s">
         <v>52</v>
       </c>
-      <c r="E60">
-        <v>3405.8065396047</v>
-      </c>
-      <c r="F60">
-        <v>340140.80634714302</v>
+      <c r="D60" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="12">
+        <v>16.37795565196965</v>
+      </c>
+      <c r="F60" s="13">
+        <v>48.199667816992303</v>
       </c>
       <c r="G60" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2602,6 +2841,9 @@
       <c r="B61" t="s">
         <v>53</v>
       </c>
+      <c r="C61" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -2619,7 +2861,10 @@
         <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
       </c>
       <c r="E63">
         <v>16.373442871164102</v>
@@ -2628,10 +2873,10 @@
         <v>48.203741336795801</v>
       </c>
       <c r="G63" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H63" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2641,6 +2886,9 @@
       <c r="B64" t="s">
         <v>56</v>
       </c>
+      <c r="G64" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -2652,6 +2900,9 @@
       <c r="C65" t="s">
         <v>174</v>
       </c>
+      <c r="D65" t="s">
+        <v>254</v>
+      </c>
       <c r="E65">
         <v>16.3756233564837</v>
       </c>
@@ -2659,7 +2910,7 @@
         <v>48.205289231707702</v>
       </c>
       <c r="G65" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2680,6 +2931,9 @@
       <c r="C67" t="s">
         <v>175</v>
       </c>
+      <c r="D67" t="s">
+        <v>255</v>
+      </c>
       <c r="E67">
         <v>16.3743618942548</v>
       </c>
@@ -2687,7 +2941,7 @@
         <v>48.204804726817997</v>
       </c>
       <c r="G67" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2700,6 +2954,9 @@
       <c r="C68" t="s">
         <v>176</v>
       </c>
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
       <c r="E68">
         <v>16.374771532126001</v>
       </c>
@@ -2707,7 +2964,7 @@
         <v>48.205930413615398</v>
       </c>
       <c r="G68" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2728,6 +2985,9 @@
       <c r="C70" t="s">
         <v>177</v>
       </c>
+      <c r="D70" t="s">
+        <v>254</v>
+      </c>
       <c r="E70">
         <v>16.392141649460701</v>
       </c>
@@ -2735,7 +2995,7 @@
         <v>48.193100955666402</v>
       </c>
       <c r="G70" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -2746,10 +3006,10 @@
         <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E71">
         <v>16.377244142328301</v>
@@ -2758,10 +3018,10 @@
         <v>48.206186329595198</v>
       </c>
       <c r="G71" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H71" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -2772,7 +3032,10 @@
         <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="D72" t="s">
+        <v>252</v>
       </c>
       <c r="E72">
         <v>16.377125955820802</v>
@@ -2781,10 +3044,10 @@
         <v>48.207649976086799</v>
       </c>
       <c r="G72" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H72" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J72" s="7"/>
     </row>
@@ -2798,14 +3061,17 @@
       <c r="C73" t="s">
         <v>178</v>
       </c>
+      <c r="D73" t="s">
+        <v>255</v>
+      </c>
       <c r="E73">
-        <v>16.376276583298299</v>
+        <v>16.37882835164897</v>
       </c>
       <c r="F73">
-        <v>48.208622776513202</v>
+        <v>48.207654153454747</v>
       </c>
       <c r="G73" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -2818,6 +3084,9 @@
       <c r="C74" t="s">
         <v>179</v>
       </c>
+      <c r="D74" t="s">
+        <v>255</v>
+      </c>
       <c r="E74">
         <v>16.3763895227159</v>
       </c>
@@ -2825,7 +3094,7 @@
         <v>48.208341554480398</v>
       </c>
       <c r="G74" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -2836,7 +3105,10 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="D75" t="s">
+        <v>255</v>
       </c>
       <c r="E75" s="7">
         <v>16.382332999999999</v>
@@ -2845,10 +3117,10 @@
         <v>48.206693999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I75" s="7"/>
     </row>
@@ -2870,6 +3142,9 @@
       <c r="C77" t="s">
         <v>180</v>
       </c>
+      <c r="D77" t="s">
+        <v>254</v>
+      </c>
       <c r="E77">
         <v>16.392549994163101</v>
       </c>
@@ -2877,7 +3152,7 @@
         <v>48.192425042515502</v>
       </c>
       <c r="G77" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -2904,7 +3179,10 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="D80" t="s">
+        <v>255</v>
       </c>
       <c r="E80" s="5">
         <v>16.382746000000001</v>
@@ -2913,10 +3191,10 @@
         <v>48.203598</v>
       </c>
       <c r="G80" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2926,6 +3204,9 @@
       <c r="B81" t="s">
         <v>71</v>
       </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
       <c r="E81" s="5">
         <v>16.349722</v>
       </c>
@@ -2933,10 +3214,10 @@
         <v>48.075277999999997</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H81" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2946,6 +3227,9 @@
       <c r="B82" t="s">
         <v>72</v>
       </c>
+      <c r="D82" t="s">
+        <v>253</v>
+      </c>
       <c r="E82" s="5">
         <v>16.349722</v>
       </c>
@@ -2953,10 +3237,10 @@
         <v>48.075277999999997</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H82" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2969,6 +3253,9 @@
       <c r="C83" t="s">
         <v>181</v>
       </c>
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
       <c r="E83">
         <v>16.384374670156699</v>
       </c>
@@ -2976,7 +3263,7 @@
         <v>48.203154771736699</v>
       </c>
       <c r="G83" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2986,6 +3273,9 @@
       <c r="B84" t="s">
         <v>74</v>
       </c>
+      <c r="D84" t="s">
+        <v>255</v>
+      </c>
       <c r="E84" s="5">
         <v>16.386500000000002</v>
       </c>
@@ -2993,10 +3283,10 @@
         <v>48.206400000000002</v>
       </c>
       <c r="G84" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3017,6 +3307,9 @@
       <c r="C86" t="s">
         <v>178</v>
       </c>
+      <c r="D86" t="s">
+        <v>255</v>
+      </c>
       <c r="E86">
         <v>16.376276583298299</v>
       </c>
@@ -3024,7 +3317,7 @@
         <v>48.208622776513202</v>
       </c>
       <c r="G86" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,7 +3328,10 @@
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>254</v>
       </c>
       <c r="E87" s="8">
         <v>16.378865470000001</v>
@@ -3044,7 +3340,7 @@
         <v>48.20813528</v>
       </c>
       <c r="G87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3062,14 +3358,17 @@
       <c r="B89" t="s">
         <v>78</v>
       </c>
+      <c r="D89" t="s">
+        <v>255</v>
+      </c>
       <c r="E89">
-        <v>16.379059896599799</v>
+        <v>16.379973327112349</v>
       </c>
       <c r="F89">
-        <v>48.210194767073098</v>
+        <v>48.209980399463213</v>
       </c>
       <c r="G89" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3088,16 +3387,19 @@
         <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="D91" t="s">
+        <v>255</v>
       </c>
       <c r="E91">
-        <v>16.379059896599799</v>
+        <v>16.379973327112349</v>
       </c>
       <c r="F91">
-        <v>48.210194767073098</v>
+        <v>48.209980399463213</v>
       </c>
       <c r="G91" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3116,10 +3418,10 @@
         <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E93">
         <v>16.3867689100923</v>
@@ -3128,10 +3430,10 @@
         <v>48.211022312628899</v>
       </c>
       <c r="G93" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H93" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3152,6 +3454,9 @@
       <c r="C95" t="s">
         <v>182</v>
       </c>
+      <c r="D95" t="s">
+        <v>255</v>
+      </c>
       <c r="E95">
         <v>16.395002029909101</v>
       </c>
@@ -3159,7 +3464,7 @@
         <v>48.211351233037902</v>
       </c>
       <c r="G95" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3172,6 +3477,9 @@
       <c r="C96" t="s">
         <v>163</v>
       </c>
+      <c r="D96" t="s">
+        <v>254</v>
+      </c>
       <c r="E96">
         <v>16.3330615633398</v>
       </c>
@@ -3179,7 +3487,7 @@
         <v>48.276207520699103</v>
       </c>
       <c r="G96" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3190,7 +3498,10 @@
         <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>323</v>
+      </c>
+      <c r="D97" t="s">
+        <v>254</v>
       </c>
       <c r="E97">
         <v>16.414195198823599</v>
@@ -3199,10 +3510,10 @@
         <v>48.205516257724597</v>
       </c>
       <c r="G97" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3210,22 +3521,22 @@
         <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E98">
-        <v>16.4239932517287</v>
+        <v>16.380506944914231</v>
       </c>
       <c r="F98">
-        <v>48.197665411529599</v>
+        <v>48.215845401811762</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3233,19 +3544,22 @@
         <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>286</v>
+      </c>
+      <c r="D99" t="s">
+        <v>255</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F99">
         <v>48.211944000000003</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H99" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3255,14 +3569,17 @@
       <c r="B100" t="s">
         <v>86</v>
       </c>
-      <c r="E100" s="8">
-        <v>16.37638772</v>
-      </c>
-      <c r="F100" s="8">
-        <v>48.211909830000003</v>
+      <c r="D100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>16.378388240764739</v>
+      </c>
+      <c r="F100">
+        <v>48.211614488393352</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3273,7 +3590,10 @@
         <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D101" t="s">
+        <v>254</v>
       </c>
       <c r="E101">
         <v>16.382223673443399</v>
@@ -3282,7 +3602,7 @@
         <v>48.2220212119013</v>
       </c>
       <c r="G101" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3319,6 +3639,9 @@
       <c r="C105" t="s">
         <v>84</v>
       </c>
+      <c r="D105" t="s">
+        <v>255</v>
+      </c>
       <c r="E105" s="7">
         <v>16.385278</v>
       </c>
@@ -3326,10 +3649,10 @@
         <v>48.215277999999998</v>
       </c>
       <c r="G105" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H105" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3340,7 +3663,10 @@
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
+        <v>253</v>
       </c>
       <c r="E106">
         <v>16.416258411226298</v>
@@ -3349,7 +3675,7 @@
         <v>48.220308422232101</v>
       </c>
       <c r="G106" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3368,7 +3694,10 @@
         <v>94</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="D108" t="s">
+        <v>255</v>
       </c>
       <c r="E108">
         <v>16.391311100668101</v>
@@ -3377,7 +3706,7 @@
         <v>48.213174015253898</v>
       </c>
       <c r="G108" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3388,7 +3717,7 @@
         <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E109">
         <v>16.371945115880401</v>
@@ -3397,7 +3726,7 @@
         <v>48.207757987582198</v>
       </c>
       <c r="G109" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3407,6 +3736,9 @@
       <c r="B110" t="s">
         <v>96</v>
       </c>
+      <c r="D110" t="s">
+        <v>254</v>
+      </c>
       <c r="E110">
         <v>16.388422800000001</v>
       </c>
@@ -3414,7 +3746,7 @@
         <v>48.212240950000002</v>
       </c>
       <c r="G110" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3425,7 +3757,10 @@
         <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="D111" t="s">
+        <v>254</v>
       </c>
       <c r="E111">
         <v>16.406936998390801</v>
@@ -3434,7 +3769,7 @@
         <v>48.194841093632</v>
       </c>
       <c r="G111" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3447,14 +3782,14 @@
       <c r="D112" t="s">
         <v>255</v>
       </c>
-      <c r="E112" s="8">
-        <v>16.37638772</v>
-      </c>
-      <c r="F112" s="8">
-        <v>48.211909830000003</v>
+      <c r="E112">
+        <v>16.378388240764739</v>
+      </c>
+      <c r="F112">
+        <v>48.211614488393352</v>
       </c>
       <c r="G112" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3465,10 +3800,10 @@
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E113">
         <v>16.364155696833599</v>
@@ -3477,7 +3812,7 @@
         <v>48.1845641139818</v>
       </c>
       <c r="G113" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3488,7 +3823,7 @@
         <v>99</v>
       </c>
       <c r="D114" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E114" s="8">
         <v>16.378797120000002</v>
@@ -3497,7 +3832,7 @@
         <v>48.210806050000002</v>
       </c>
       <c r="G114" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3508,7 +3843,7 @@
         <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E115">
         <v>16.378362442085599</v>
@@ -3517,10 +3852,10 @@
         <v>48.210804495465801</v>
       </c>
       <c r="G115" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H115" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3531,10 +3866,10 @@
         <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E116">
         <v>16.376388296599899</v>
@@ -3543,10 +3878,10 @@
         <v>48.211849259689103</v>
       </c>
       <c r="G116" t="s">
+        <v>310</v>
+      </c>
+      <c r="H116" t="s">
         <v>315</v>
-      </c>
-      <c r="H116" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3557,19 +3892,19 @@
         <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E117">
-        <v>16.4239932517287</v>
+        <v>16.380506944914231</v>
       </c>
       <c r="F117">
-        <v>48.197665411529599</v>
+        <v>48.215845401811762</v>
       </c>
       <c r="G117" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3580,10 +3915,10 @@
         <v>102</v>
       </c>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E118">
         <v>16.376421892683702</v>
@@ -3592,7 +3927,7 @@
         <v>48.213588305837199</v>
       </c>
       <c r="G118" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3603,10 +3938,10 @@
         <v>103</v>
       </c>
       <c r="C119" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E119">
         <v>16.375</v>
@@ -3615,10 +3950,10 @@
         <v>48.214167000000003</v>
       </c>
       <c r="G119" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H119" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3629,10 +3964,10 @@
         <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E120">
         <v>16.374937181267502</v>
@@ -3641,7 +3976,7 @@
         <v>48.2136340235486</v>
       </c>
       <c r="G120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3652,19 +3987,19 @@
         <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E121">
-        <v>16.376415950127999</v>
+        <v>16.376500229730251</v>
       </c>
       <c r="F121">
-        <v>48.210714885479099</v>
+        <v>48.212120359839297</v>
       </c>
       <c r="G121" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3675,7 +4010,7 @@
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E122">
         <v>16.374430808795299</v>
@@ -3684,7 +4019,7 @@
         <v>48.212285427789197</v>
       </c>
       <c r="G122" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3703,10 +4038,10 @@
         <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E124">
         <v>16.373987083107401</v>
@@ -3715,10 +4050,10 @@
         <v>48.212963261661997</v>
       </c>
       <c r="G124" t="s">
+        <v>310</v>
+      </c>
+      <c r="H124" t="s">
         <v>315</v>
-      </c>
-      <c r="H124" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3729,10 +4064,10 @@
         <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E125">
         <v>16.372856189480402</v>
@@ -3741,7 +4076,7 @@
         <v>48.212974028083302</v>
       </c>
       <c r="G125" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3752,10 +4087,10 @@
         <v>109</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E126">
         <v>16.371653710092499</v>
@@ -3764,7 +4099,7 @@
         <v>48.2134726054448</v>
       </c>
       <c r="G126" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3775,10 +4110,10 @@
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E127" s="5">
         <v>16.361861000000001</v>
@@ -3787,7 +4122,7 @@
         <v>48.200944</v>
       </c>
       <c r="G127" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3806,23 +4141,21 @@
         <v>111</v>
       </c>
       <c r="C129" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D129" t="s">
         <v>255</v>
       </c>
-      <c r="E129" s="5">
-        <v>16.363333000000001</v>
-      </c>
-      <c r="F129" s="5">
-        <v>48.214722000000002</v>
+      <c r="E129">
+        <v>16.37089487712133</v>
+      </c>
+      <c r="F129">
+        <v>48.214424546543647</v>
       </c>
       <c r="G129" t="s">
-        <v>268</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>294</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
@@ -3832,10 +4165,10 @@
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E130" s="7">
         <v>16.377647</v>
@@ -3844,7 +4177,7 @@
         <v>48.208936000000001</v>
       </c>
       <c r="G130" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3855,7 +4188,19 @@
         <v>113</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="D131" t="s">
+        <v>254</v>
+      </c>
+      <c r="E131">
+        <v>16.369412227478929</v>
+      </c>
+      <c r="F131">
+        <v>48.214203866638321</v>
+      </c>
+      <c r="G131" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3874,10 +4219,10 @@
         <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E133">
         <v>16.3703252108137</v>
@@ -3886,7 +4231,7 @@
         <v>48.218798001733703</v>
       </c>
       <c r="G133" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3897,10 +4242,10 @@
         <v>84</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E134">
         <v>16.4239932517287</v>
@@ -3909,7 +4254,7 @@
         <v>48.197665411529599</v>
       </c>
       <c r="G134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3920,10 +4265,10 @@
         <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E135">
         <v>16.375799193189199</v>
@@ -3932,7 +4277,7 @@
         <v>48.225635965770003</v>
       </c>
       <c r="G135" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3943,10 +4288,10 @@
         <v>116</v>
       </c>
       <c r="C136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E136">
         <v>16.375805904211902</v>
@@ -3955,7 +4300,7 @@
         <v>48.238462671779402</v>
       </c>
       <c r="G136" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3966,7 +4311,7 @@
         <v>117</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E137" s="7">
         <v>16.363889</v>
@@ -3975,10 +4320,10 @@
         <v>48.221666999999997</v>
       </c>
       <c r="G137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3989,7 +4334,7 @@
         <v>118</v>
       </c>
       <c r="D138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E138" s="7">
         <v>16.357778</v>
@@ -3998,10 +4343,10 @@
         <v>48.228056000000002</v>
       </c>
       <c r="G138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H138" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4012,10 +4357,10 @@
         <v>119</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D139" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E139">
         <v>16.363835558603199</v>
@@ -4024,7 +4369,7 @@
         <v>48.220433225640001</v>
       </c>
       <c r="G139" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4035,10 +4380,10 @@
         <v>120</v>
       </c>
       <c r="C140" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E140">
         <v>16.3331726214989</v>
@@ -4047,7 +4392,7 @@
         <v>48.260965418235898</v>
       </c>
       <c r="G140" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4061,7 +4406,7 @@
         <v>163</v>
       </c>
       <c r="D141" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E141">
         <v>16.3330615633398</v>
@@ -4070,7 +4415,7 @@
         <v>48.276207520699103</v>
       </c>
       <c r="G141" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4081,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E142">
         <v>16.346597409547702</v>
@@ -4093,7 +4438,7 @@
         <v>48.2790007290956</v>
       </c>
       <c r="G142" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4104,10 +4449,10 @@
         <v>122</v>
       </c>
       <c r="C143" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E143">
         <v>16.368181557671601</v>
@@ -4116,10 +4461,10 @@
         <v>48.210797467216402</v>
       </c>
       <c r="G143" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H143" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4130,10 +4475,10 @@
         <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E144">
         <v>16.3330615633398</v>
@@ -4142,7 +4487,7 @@
         <v>48.276207520699103</v>
       </c>
       <c r="G144" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4153,7 +4498,7 @@
         <v>124</v>
       </c>
       <c r="D145" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E145">
         <v>15.249119424881</v>
@@ -4162,7 +4507,7 @@
         <v>47.938044769567597</v>
       </c>
       <c r="G145" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4181,7 +4526,7 @@
         <v>126</v>
       </c>
       <c r="D147" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E147">
         <v>16.36726977</v>
@@ -4190,7 +4535,7 @@
         <v>48.213743540000003</v>
       </c>
       <c r="G147" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4209,19 +4554,19 @@
         <v>128</v>
       </c>
       <c r="C149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D149" t="s">
         <v>255</v>
       </c>
       <c r="E149">
-        <v>16.365252690635799</v>
+        <v>16.3635749184532</v>
       </c>
       <c r="F149">
-        <v>48.212237583665697</v>
+        <v>48.213204922064058</v>
       </c>
       <c r="G149" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4232,10 +4577,10 @@
         <v>129</v>
       </c>
       <c r="C150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D150" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E150">
         <v>16.363197754961</v>
@@ -4244,7 +4589,7 @@
         <v>48.213248674922298</v>
       </c>
       <c r="G150" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4255,10 +4600,10 @@
         <v>130</v>
       </c>
       <c r="C151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D151" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E151">
         <v>16.3647892781553</v>
@@ -4267,7 +4612,7 @@
         <v>48.211577277908802</v>
       </c>
       <c r="G151" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4278,10 +4623,10 @@
         <v>131</v>
       </c>
       <c r="C152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E152">
         <v>16.365606825194199</v>
@@ -4290,7 +4635,7 @@
         <v>48.209840541072303</v>
       </c>
       <c r="G152" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4301,7 +4646,7 @@
         <v>132</v>
       </c>
       <c r="D153" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E153">
         <v>16.358228749999999</v>
@@ -4310,7 +4655,7 @@
         <v>48.218601169999999</v>
       </c>
       <c r="G153" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4321,10 +4666,10 @@
         <v>133</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D154" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E154">
         <v>16.358331544138501</v>
@@ -4333,7 +4678,7 @@
         <v>48.217020890050698</v>
       </c>
       <c r="G154" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4344,10 +4689,10 @@
         <v>120</v>
       </c>
       <c r="C155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E155">
         <v>16.3331726214989</v>
@@ -4356,7 +4701,7 @@
         <v>48.260965418235898</v>
       </c>
       <c r="G155" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4367,7 +4712,7 @@
         <v>134</v>
       </c>
       <c r="D156" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E156">
         <v>18.4400221375504</v>
@@ -4376,7 +4721,7 @@
         <v>34.201904873543903</v>
       </c>
       <c r="G156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4387,10 +4732,10 @@
         <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D157" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E157">
         <v>18.1858255041702</v>
@@ -4399,7 +4744,7 @@
         <v>34.192160669262996</v>
       </c>
       <c r="G157" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -4411,16 +4756,16 @@
         <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E158">
-        <v>16.886598266893401</v>
+        <v>16.354871243618479</v>
       </c>
       <c r="F158">
-        <v>34.183405007447902</v>
+        <v>48.2148999202754</v>
       </c>
       <c r="G158" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4431,19 +4776,19 @@
         <v>137</v>
       </c>
       <c r="C159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D159" t="s">
         <v>255</v>
       </c>
       <c r="E159">
-        <v>16.416390769474798</v>
+        <v>16.351203688080631</v>
       </c>
       <c r="F159">
-        <v>48.2627879575126</v>
+        <v>48.214900459574928</v>
       </c>
       <c r="G159" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4453,9 +4798,6 @@
       <c r="B160" t="s">
         <v>138</v>
       </c>
-      <c r="D160" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
@@ -4465,16 +4807,16 @@
         <v>139</v>
       </c>
       <c r="D161" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E161">
-        <v>17.013696583583801</v>
+        <v>16.35506101024108</v>
       </c>
       <c r="F161">
-        <v>34.175461362654801</v>
+        <v>48.214188675589597</v>
       </c>
       <c r="G161" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4484,9 +4826,6 @@
       <c r="B162" t="s">
         <v>77</v>
       </c>
-      <c r="D162" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
@@ -4496,10 +4835,10 @@
         <v>140</v>
       </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E163">
         <v>16.362053242510498</v>
@@ -4508,7 +4847,7 @@
         <v>48.212394037049201</v>
       </c>
       <c r="G163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -4519,10 +4858,10 @@
         <v>141</v>
       </c>
       <c r="C164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D164" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E164">
         <v>16.3627143666587</v>
@@ -4531,7 +4870,7 @@
         <v>48.211441045644698</v>
       </c>
       <c r="G164" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -4542,10 +4881,10 @@
         <v>142</v>
       </c>
       <c r="C165" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D165" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E165" s="5">
         <v>16.361944000000001</v>
@@ -4554,10 +4893,10 @@
         <v>48.211666999999998</v>
       </c>
       <c r="G165" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H165" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -4568,19 +4907,19 @@
         <v>143</v>
       </c>
       <c r="C166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D166" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E166">
-        <v>21.825780073823601</v>
+        <v>16.361502989086649</v>
       </c>
       <c r="F166">
-        <v>34.1404740204771</v>
+        <v>48.211039951767503</v>
       </c>
       <c r="G166" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4591,10 +4930,10 @@
         <v>144</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E167">
         <v>16.3480816321009</v>
@@ -4603,7 +4942,7 @@
         <v>48.210309378949098</v>
       </c>
       <c r="G167" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -4614,10 +4953,10 @@
         <v>145</v>
       </c>
       <c r="C168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E168">
         <v>16.356328999999999</v>
@@ -4626,7 +4965,7 @@
         <v>48.210980999999997</v>
       </c>
       <c r="G168" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4637,19 +4976,19 @@
         <v>146</v>
       </c>
       <c r="C169" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D169" t="s">
         <v>255</v>
       </c>
       <c r="E169">
-        <v>16.260842566541601</v>
+        <v>16.34941129155137</v>
       </c>
       <c r="F169">
-        <v>48.150495348646999</v>
+        <v>48.209582451763538</v>
       </c>
       <c r="G169" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -4660,7 +4999,7 @@
         <v>147</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E170" s="7">
         <v>16.351111</v>
@@ -4669,10 +5008,10 @@
         <v>48.209583000000002</v>
       </c>
       <c r="G170" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H170" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4683,7 +5022,16 @@
         <v>148</v>
       </c>
       <c r="D171" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>16.34596291721564</v>
+      </c>
+      <c r="F171">
+        <v>48.211103653551703</v>
+      </c>
+      <c r="G171" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -4694,10 +5042,10 @@
         <v>149</v>
       </c>
       <c r="C172" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D172" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E172">
         <v>16.344858318868098</v>
@@ -4706,7 +5054,7 @@
         <v>48.2072450727103</v>
       </c>
       <c r="G172" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4717,19 +5065,19 @@
         <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E173">
-        <v>16.362264167569698</v>
+        <v>16.361304165514252</v>
       </c>
       <c r="F173">
-        <v>48.2097230034041</v>
+        <v>48.209892009052354</v>
       </c>
       <c r="G173" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -4740,7 +5088,7 @@
         <v>151</v>
       </c>
       <c r="D174" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E174" s="8">
         <v>16.366648059999999</v>
@@ -4749,7 +5097,7 @@
         <v>48.207747529999999</v>
       </c>
       <c r="G174" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4760,10 +5108,10 @@
         <v>152</v>
       </c>
       <c r="C175" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D175" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E175">
         <v>16.3609691632441</v>
@@ -4772,10 +5120,10 @@
         <v>48.2069211592244</v>
       </c>
       <c r="G175" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H175" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -4789,7 +5137,7 @@
         <v>167</v>
       </c>
       <c r="D176" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E176">
         <v>16.361755237940699</v>
@@ -4798,7 +5146,7 @@
         <v>48.207964058470097</v>
       </c>
       <c r="G176" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -4809,19 +5157,19 @@
         <v>153</v>
       </c>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E177">
-        <v>16.362684356734199</v>
+        <v>16.363529964001032</v>
       </c>
       <c r="F177">
-        <v>48.210653381081002</v>
+        <v>48.210334428456491</v>
       </c>
       <c r="G177" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -4832,10 +5180,10 @@
         <v>154</v>
       </c>
       <c r="C178" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D178" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E178">
         <v>16.3626965846566</v>
@@ -4844,7 +5192,7 @@
         <v>48.210128918306097</v>
       </c>
       <c r="G178" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -4855,10 +5203,10 @@
         <v>155</v>
       </c>
       <c r="C179" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D179" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E179">
         <v>16.3637725296221</v>
@@ -4867,7 +5215,7 @@
         <v>48.2083797886037</v>
       </c>
       <c r="G179" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -4878,22 +5226,22 @@
         <v>156</v>
       </c>
       <c r="C180" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D180" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F180" s="10">
         <v>48.208100000000002</v>
       </c>
       <c r="G180" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H180" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -4904,10 +5252,10 @@
         <v>157</v>
       </c>
       <c r="C181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D181" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E181" s="7">
         <v>16.364080999999999</v>
@@ -4916,10 +5264,10 @@
         <v>48.208371999999997</v>
       </c>
       <c r="G181" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H181" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -4929,6 +5277,18 @@
       <c r="B182" t="s">
         <v>6</v>
       </c>
+      <c r="D182" t="s">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>16.3644986548132</v>
+      </c>
+      <c r="F182">
+        <v>48.206795119564909</v>
+      </c>
+      <c r="G182" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
@@ -4947,7 +5307,7 @@
         <v>48.207964058470097</v>
       </c>
       <c r="G183" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -4975,7 +5335,7 @@
         <v>48.207964058470097</v>
       </c>
       <c r="G185" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -4995,7 +5355,7 @@
         <v>48.208383057004497</v>
       </c>
       <c r="G186" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5014,7 +5374,7 @@
         <v>161</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E188">
         <v>16.365843215387599</v>
@@ -5023,7 +5383,7 @@
         <v>48.206876060974402</v>
       </c>
       <c r="G188" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5036,13 +5396,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" tooltip="Museumstraße (Wien)" display="https://de.wikipedia.org/wiki/Museumstra%C3%9Fe_(Wien)" xr:uid="{278AF2AA-4D34-4941-9B6F-395AE74BB16D}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{67E5440D-0644-4FDA-8419-0A7912B5D5F2}"/>
-    <hyperlink ref="H13" r:id="rId3" xr:uid="{A850B9E1-F984-4328-9445-CD3C8ACBC0CC}"/>
-    <hyperlink ref="H56" r:id="rId4" xr:uid="{44C3D5A0-DEB8-4C4B-88B8-2A095017A5B4}"/>
-    <hyperlink ref="H129" r:id="rId5" xr:uid="{F007C538-A02F-4AA1-8993-A3BA5343B979}"/>
-    <hyperlink ref="H137" r:id="rId6" xr:uid="{C4095551-9425-4E76-95CF-7581F5588132}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{67E5440D-0644-4FDA-8419-0A7912B5D5F2}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{A850B9E1-F984-4328-9445-CD3C8ACBC0CC}"/>
+    <hyperlink ref="H56" r:id="rId3" xr:uid="{44C3D5A0-DEB8-4C4B-88B8-2A095017A5B4}"/>
+    <hyperlink ref="H137" r:id="rId4" xr:uid="{C4095551-9425-4E76-95CF-7581F5588132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
+++ b/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\Sonntag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B599086-294B-4EAF-AAFB-A4D9D9CDAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C8330-8EEA-4DC1-8900-B80F5BC9213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
+++ b/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\Sonntag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C8330-8EEA-4DC1-8900-B80F5BC9213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2FB098-CD23-4CF7-8FC0-8F7EED7B4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70:F70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
+++ b/Data/Sonntag/joined_Sonntag_coord_nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\Sonntag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2FB098-CD23-4CF7-8FC0-8F7EED7B4FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DEEAED-DAEE-43DF-8ECE-5958BEB6258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,12 +1058,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1167,7 +1191,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1194,9 +1218,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1251,6 +1280,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56090D2F-2F8D-4DD3-B85D-7A41649EEE98}" name="Table1" displayName="Table1" ref="A1:H189" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H189" xr:uid="{56090D2F-2F8D-4DD3-B85D-7A41649EEE98}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H189">
+    <sortCondition ref="A1:A189"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4698E331-9694-4111-AA9B-D967027FEBAE}" name="Index"/>
     <tableColumn id="2" xr3:uid="{D96E1CDA-2DAA-4B6B-B47C-9926123A1DF4}" name="NEUE_NAMEN"/>
@@ -1552,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1648,10 +1680,10 @@
       <c r="D4" t="s">
         <v>255</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>16.362701650694301</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>48.205781183762973</v>
       </c>
       <c r="G4" t="s">
@@ -1668,10 +1700,10 @@
       <c r="D5" t="s">
         <v>255</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="12">
         <v>16.358861594767429</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>48.203592798970938</v>
       </c>
       <c r="G5" t="s">
@@ -1794,10 +1826,10 @@
       <c r="D11" t="s">
         <v>254</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>16.336883553860101</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>48.194919391773901</v>
       </c>
       <c r="G11" t="s">
@@ -1860,10 +1892,10 @@
       <c r="D14" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>16.362007399610491</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>48.201896648067986</v>
       </c>
       <c r="G14" t="s">
@@ -1934,10 +1966,10 @@
       <c r="D19" t="s">
         <v>254</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="13">
         <v>16.368694000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>48.200527999999998</v>
       </c>
       <c r="G19" t="s">
@@ -1986,10 +2018,10 @@
       <c r="D21" t="s">
         <v>255</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="12">
         <v>16.371866173866</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="12">
         <v>48.198245099030899</v>
       </c>
       <c r="G21" t="s">
@@ -2223,10 +2255,10 @@
       <c r="D33" t="s">
         <v>254</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="12">
         <v>16.361755237940699</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="12">
         <v>48.207964058470097</v>
       </c>
       <c r="G33" t="s">
@@ -2269,10 +2301,10 @@
       <c r="D35" t="s">
         <v>254</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="12">
         <v>16.3659572122668</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="12">
         <v>48.204555072124897</v>
       </c>
       <c r="G35" t="s">
@@ -2364,10 +2396,10 @@
       <c r="D39" t="s">
         <v>255</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="13">
         <v>16.369026000000002</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>48.204306000000003</v>
       </c>
       <c r="G39" t="s">
@@ -2511,6 +2543,8 @@
       <c r="B46" t="s">
         <v>43</v>
       </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -2525,10 +2559,10 @@
       <c r="D47" t="s">
         <v>255</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="12">
         <v>16.3673894389274</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="12">
         <v>48.198865889213501</v>
       </c>
       <c r="G47" t="s">
@@ -2597,10 +2631,10 @@
       <c r="D50" t="s">
         <v>255</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="12">
         <v>16.3673894389274</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="12">
         <v>48.198865889213501</v>
       </c>
       <c r="G50" t="s">
@@ -2686,10 +2720,10 @@
       <c r="D54" t="s">
         <v>255</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="16">
         <v>16.376831816725058</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="18">
         <v>48.197382170211647</v>
       </c>
       <c r="G54" t="s">
@@ -2732,7 +2766,7 @@
       <c r="D56" t="s">
         <v>255</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="12">
         <v>16.380099999999999</v>
       </c>
       <c r="F56" s="5">
@@ -2824,10 +2858,10 @@
       <c r="D60" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="15">
         <v>16.37795565196965</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="17">
         <v>48.199667816992303</v>
       </c>
       <c r="G60" t="s">
@@ -2920,6 +2954,8 @@
       <c r="B66" t="s">
         <v>54</v>
       </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -2988,10 +3024,10 @@
       <c r="D70" t="s">
         <v>254</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="12">
         <v>16.392141649460701</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="12">
         <v>48.193100955666402</v>
       </c>
       <c r="G70" t="s">
@@ -3256,10 +3292,10 @@
       <c r="D83" t="s">
         <v>254</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="12">
         <v>16.384374670156699</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="12">
         <v>48.203154771736699</v>
       </c>
       <c r="G83" t="s">
@@ -3296,6 +3332,8 @@
       <c r="B85" t="s">
         <v>75</v>
       </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -3310,10 +3348,10 @@
       <c r="D86" t="s">
         <v>255</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="12">
         <v>16.376276583298299</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="12">
         <v>48.208622776513202</v>
       </c>
       <c r="G86" t="s">
@@ -3361,10 +3399,10 @@
       <c r="D89" t="s">
         <v>255</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="12">
         <v>16.379973327112349</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="12">
         <v>48.209980399463213</v>
       </c>
       <c r="G89" t="s">
@@ -3443,6 +3481,8 @@
       <c r="B94" t="s">
         <v>77</v>
       </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -3457,10 +3497,10 @@
       <c r="D95" t="s">
         <v>255</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="12">
         <v>16.395002029909101</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="12">
         <v>48.211351233037902</v>
       </c>
       <c r="G95" t="s">
@@ -3503,10 +3543,10 @@
       <c r="D97" t="s">
         <v>254</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="12">
         <v>16.414195198823599</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="12">
         <v>48.205516257724597</v>
       </c>
       <c r="G97" t="s">
@@ -3620,6 +3660,8 @@
       <c r="B103" t="s">
         <v>89</v>
       </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
@@ -4146,10 +4188,10 @@
       <c r="D129" t="s">
         <v>255</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="12">
         <v>16.37089487712133</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="12">
         <v>48.214424546543647</v>
       </c>
       <c r="G129" t="s">
@@ -4210,6 +4252,8 @@
       <c r="B132" t="s">
         <v>80</v>
       </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
@@ -4362,10 +4406,10 @@
       <c r="D139" t="s">
         <v>255</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="12">
         <v>16.363835558603199</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="12">
         <v>48.220433225640001</v>
       </c>
       <c r="G139" t="s">
@@ -4648,10 +4692,10 @@
       <c r="D153" t="s">
         <v>255</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="12">
         <v>16.358228749999999</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="12">
         <v>48.218601169999999</v>
       </c>
       <c r="G153" t="s">
@@ -4671,10 +4715,10 @@
       <c r="D154" t="s">
         <v>255</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="12">
         <v>16.358331544138501</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="12">
         <v>48.217020890050698</v>
       </c>
       <c r="G154" t="s">
@@ -4863,10 +4907,10 @@
       <c r="D164" t="s">
         <v>255</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="12">
         <v>16.3627143666587</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="12">
         <v>48.211441045644698</v>
       </c>
       <c r="G164" t="s">
@@ -5047,10 +5091,10 @@
       <c r="D172" t="s">
         <v>255</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="12">
         <v>16.344858318868098</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="12">
         <v>48.2072450727103</v>
       </c>
       <c r="G172" t="s">
@@ -5070,10 +5114,10 @@
       <c r="D173" t="s">
         <v>255</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="12">
         <v>16.361304165514252</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="12">
         <v>48.209892009052354</v>
       </c>
       <c r="G173" t="s">
@@ -5090,10 +5134,10 @@
       <c r="D174" t="s">
         <v>253</v>
       </c>
-      <c r="E174" s="8">
+      <c r="E174" s="14">
         <v>16.366648059999999</v>
       </c>
-      <c r="F174" s="8">
+      <c r="F174" s="14">
         <v>48.207747529999999</v>
       </c>
       <c r="G174" t="s">
@@ -5280,10 +5324,10 @@
       <c r="D182" t="s">
         <v>255</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="12">
         <v>16.3644986548132</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="12">
         <v>48.206795119564909</v>
       </c>
       <c r="G182" t="s">
@@ -5365,6 +5409,8 @@
       <c r="B187" t="s">
         <v>160</v>
       </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -5392,6 +5438,812 @@
       </c>
       <c r="B189" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B191" t="str" cm="1">
+        <f t="array" ref="B191:B349">_xlfn.UNIQUE(B2:B189)</f>
+        <v>k. k. Burg</v>
+      </c>
+      <c r="E191">
+        <f>COUNTA(E2:E189)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B192" t="str">
+        <v>Burgplatz</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="str">
+        <v>Burgthor</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="str">
+        <v>kaiserlichen Stallungen</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="str">
+        <v>Gebäude der ungarischen Garde</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="str">
+        <v>Palais des  Fürsten Auersperg</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="str">
+        <v>Gebäude des Geographischen (Militär=)Jnstituts</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="str">
+        <v>KriminalGebäude</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="str">
+        <v>Kahlengebirge</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="str">
+        <v>Mariahilfer Hauptstraße</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="str">
+        <v>Schönbrunn</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="str">
+        <v>Grenadierkaserne</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="str">
+        <v>Getreidemarkt</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="str">
+        <v>artesischen Brunnen</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="str">
+        <v>Akazien=Alleen</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="str">
+        <v>Wien</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="str">
+        <v>Kettenstege</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="str">
+        <v>der steinernen Brücke</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="str">
+        <v>Polytechnische Jnstitut</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="str">
+        <v>Karlskirche</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="str">
+        <v>Burg</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="str">
+        <v>RitterCeremoniensaal</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="str">
+        <v>Appartements Sr Majestät des Kaisers</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="str">
+        <v>Rittersaal</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="str">
+        <v>AntikenMineralienkabinet</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="str">
+        <v>astronomische Thurm</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="str">
+        <v>Hofbibliotek=Gebäudes</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="str">
+        <v>Josephsplatze</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="str">
+        <v>Palais des  Erzherzogs Karl</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="str">
+        <v>Volksgarten</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="str">
+        <v>Burggarten</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="str">
+        <v>Gewächshäuser</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="str">
+        <v>Wall</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="str">
+        <v>Spitalplatze</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="str">
+        <v>Hofbauamte</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="str">
+        <v>Kärnthnerthor=Theater</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="str">
+        <v>Kärnthnerthore</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="str">
+        <v>Kärnthnerstraße</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="str">
+        <v>Wieden</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="str">
+        <v>Baden</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="str">
+        <v>Starhembergische Freihaus</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="str">
+        <v>Wienerwaldes</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="str">
+        <v>Schneeberg</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="str">
+        <v>Sommerpalais des  Fürsten  Schwarzenberg</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="str">
+        <v>Belvedere</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="str">
+        <v>Bahnhofe</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="str">
+        <v>Kirche und Kloster der Salesianerinnen</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="str">
+        <v>Schwarzenbergischen Palais</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="str">
+        <v>Kaserne</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="str">
+        <v>Palais</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="str">
+        <v>Stadtgraben</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="str">
+        <v>Palais Kolowrat</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="str">
+        <v>Artillerie=Haupt=Zeugamt</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="str">
+        <v>Karolinenthor</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="str">
+        <v>Seilerstätte</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="str">
+        <v>Weihburggasse</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="str">
+        <v>Mineralwässer=Trinkkur=Anstalt</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="str">
+        <v>Rennweg</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="str">
+        <v>Palais des Herzogs von Koburg</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="str">
+        <v>orientalische Akademie</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" t="str">
+        <v>Stubenthor</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" t="str">
+        <v>Wollzeile</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" t="str">
+        <v>große Steinbrücke</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="str">
+        <v>Landstraße</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" t="str">
+        <v>zur Linie (Barriere) von St. Marx</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" t="str">
+        <v>Ungarn</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" t="str">
+        <v>Münzgebäude</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="str">
+        <v xml:space="preserve">Neustädter </v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="str">
+        <v>Kanal</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" t="str">
+        <v>Stückbohrerei</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="str">
+        <v>Jnvalidenhaus</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="str">
+        <v>Kanalbassin</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="str">
+        <v>Kloster und Kirche der  Dominikaner</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="str">
+        <v>Ravelin</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="str">
+        <v>Hauptmauth</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="str">
+        <v>Fahrpost</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="str">
+        <v>Glacis</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="str">
+        <v>Zollamt</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="str">
+        <v>Donaukanal</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="str">
+        <v>Praters</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="str">
+        <v>Leopoldstadt</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="str">
+        <v>Ferdinandsbrücke</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="str">
+        <v>Rothenthurm=Thore</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="str">
+        <v>Taborstraße</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="str">
+        <v>Tabor</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="str">
+        <v>Mähren</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="str">
+        <v>Böhmen</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="str">
+        <v>Jägerzeile</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="str">
+        <v>Donau</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="str">
+        <v>Kornspeicher</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="str">
+        <v>Franzensbrücke</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="str">
+        <v>. Bastei</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="str">
+        <v>unter den  Weißgärbern</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="str">
+        <v>Erdberg</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="str">
+        <v>Laurenzer=Gasse</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="str">
+        <v>Laurenzerhof</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="str">
+        <v>Staats=Buchhaltungen</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="str">
+        <v>Müllerische Palais</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="str">
+        <v>Dianabad</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="str">
+        <v>Karls=Kettenbrücke</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="str">
+        <v>Schanzl</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="str">
+        <v>Fischmarkt</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="str">
+        <v>St. Ruprechtstiege</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="str">
+        <v>Fischerthore</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="str">
+        <v>Salzgries</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="str">
+        <v>Polizeihaus</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="str">
+        <v>Stabsstockhaus</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="str">
+        <v>Elendbastei</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="str">
+        <v>Observatorium</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="str">
+        <v>Thore</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="str">
+        <v>Augartenbrücke</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="str">
+        <v>Augartens</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="str">
+        <v>Brigittenau</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="str">
+        <v>Roßau</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="str">
+        <v>Lichtenthal</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="str">
+        <v>Servitenkirche</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="str">
+        <v>Döbling</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" t="str">
+        <v>Leopoldsberg</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="str">
+        <v>Herzogsburg der Babenberge</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="str">
+        <v>Kahlenberg</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="str">
+        <v>Josephsberg</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="str">
+        <v>Bastei</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="str">
+        <v>Arsenales</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="str">
+        <v>Proviantbäckerei</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="str">
+        <v>Schottenthore</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="str">
+        <v>Schottengasse</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="str">
+        <v>Freiung</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="str">
+        <v>Herrngasse</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="str">
+        <v>Währingergasse</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="str">
+        <v>Gewehrfabrik</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="str">
+        <v>GarnisonsBettmagazin</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="str">
+        <v>fürstlichEsterhazische sogenannte rothe Haus</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="str">
+        <v>Jnfanterie=Kaserne</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="str">
+        <v>Alsergasse</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="str">
+        <v>Dornbach</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="str">
+        <v>Kriminale</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="str">
+        <v>Mölkerbastei</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="str">
+        <v>Teinfaltstraße</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="str">
+        <v>Palais Lubomirski</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="str">
+        <v>Franzensthor</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="str">
+        <v>Josephstadt</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="str">
+        <v>geographische Jnstitut</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="str">
+        <v>Kaisergasse</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="str">
+        <v>Josephstädter Theater</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="str">
+        <v>Kavallerie=Kaserne</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="str">
+        <v>Lerchenfeld</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="str">
+        <v>Löwelbastei</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="str">
+        <v>Paradies=Gärtchen</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="str">
+        <v>Cortis=Kaffehhause</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="str">
+        <v>Schenkenstraße</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="str">
+        <v>Palais Liechtenstein</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="str">
+        <v>Staats=Kanzlei</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" t="str">
+        <v>Ballplatz</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" t="str">
+        <v>Bellaria</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" t="str">
+        <v>zweites Kaffehaus von Corti</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" t="str">
+        <v>Theseustempel</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" t="str">
+        <v>Hof=Burgwache</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" t="str">
+        <v>Schweizerhof</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" t="str">
+        <v>Kunstvereine</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <f>COUNTA(B191:B349)</f>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
